--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_laag.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_laag.xlsx
@@ -1299,7 +1299,7 @@
         <v>0.7459511450593314</v>
       </c>
       <c r="G36">
-        <v>0.7296135039775214</v>
+        <v>0.7296135039775213</v>
       </c>
       <c r="H36">
         <v>0.7169256858065065</v>
@@ -1313,7 +1313,7 @@
         <v>0.8364018627203771</v>
       </c>
       <c r="C37">
-        <v>0.7041230460815973</v>
+        <v>0.7041230460815974</v>
       </c>
       <c r="D37">
         <v>1.151392721051538</v>
@@ -2963,7 +2963,7 @@
         <v>1.538617900034561</v>
       </c>
       <c r="G100">
-        <v>1.349150284739941</v>
+        <v>1.34915028473994</v>
       </c>
       <c r="H100">
         <v>1.335478474386186</v>
@@ -3633,7 +3633,7 @@
         <v>1.132315003106827</v>
       </c>
       <c r="E126">
-        <v>1.389477485419104</v>
+        <v>1.389477485419103</v>
       </c>
       <c r="F126">
         <v>1.252621688694842</v>
@@ -4731,7 +4731,7 @@
         <v>1.002210037182841</v>
       </c>
       <c r="G168">
-        <v>1.366950446620803</v>
+        <v>1.366950446620802</v>
       </c>
       <c r="H168">
         <v>1.284862313950405</v>
@@ -8166,7 +8166,7 @@
         <v>0.7586303281483806</v>
       </c>
       <c r="H300">
-        <v>0.8701248430451705</v>
+        <v>0.8701248430451706</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -12193,7 +12193,7 @@
         <v>0.7497669214472983</v>
       </c>
       <c r="G455">
-        <v>0.7758536035140017</v>
+        <v>0.7758536035140016</v>
       </c>
       <c r="H455">
         <v>0.7459636222905767</v>
@@ -12245,7 +12245,7 @@
         <v>0.7497669214472982</v>
       </c>
       <c r="G457">
-        <v>0.7758536035140016</v>
+        <v>0.7758536035140015</v>
       </c>
       <c r="H457">
         <v>0.7459636222905766</v>
@@ -12271,7 +12271,7 @@
         <v>0.7497669214472982</v>
       </c>
       <c r="G458">
-        <v>0.7758536035140017</v>
+        <v>0.7758536035140016</v>
       </c>
       <c r="H458">
         <v>0.7459636222905768</v>
@@ -12323,7 +12323,7 @@
         <v>0.7497669214472983</v>
       </c>
       <c r="G460">
-        <v>0.7758536035140017</v>
+        <v>0.7758536035140016</v>
       </c>
       <c r="H460">
         <v>0.7459636222905767</v>
@@ -12375,7 +12375,7 @@
         <v>0.7497669214472982</v>
       </c>
       <c r="G462">
-        <v>0.7758536035140017</v>
+        <v>0.7758536035140016</v>
       </c>
       <c r="H462">
         <v>0.7459636222905767</v>
@@ -12635,7 +12635,7 @@
         <v>0.7497669214472982</v>
       </c>
       <c r="G472">
-        <v>0.7758536035140018</v>
+        <v>0.7758536035140016</v>
       </c>
       <c r="H472">
         <v>0.7459636222905767</v>
